--- a/Apps/YouTubeCommentDownloader/CommentsDownloadTest03.xlsx
+++ b/Apps/YouTubeCommentDownloader/CommentsDownloadTest03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\PythonApplications\Apps\YouTubeCommentDownloader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C19658-7B0E-4123-845D-076494966155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B55B4CB-FA58-4B49-AF61-8BC7361A6ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17860" xr2:uid="{157FD08F-7F28-49F3-AF83-80D3254B702C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>Timestamp</t>
   </si>
@@ -71,10 +71,19 @@
     <t>@dog cow</t>
   </si>
   <si>
-    <t>AE501_OR, hello this is great</t>
-  </si>
-  <si>
-    <t>Here is a a comment with thisAE501_Kcembedded</t>
+    <t>@alanyao</t>
+  </si>
+  <si>
+    <t>AE501_AY comment 1</t>
+  </si>
+  <si>
+    <t>[AE501_AY] comment 2</t>
+  </si>
+  <si>
+    <t>AE501_OS, hello this is great</t>
+  </si>
+  <si>
+    <t>Here is a a comment with thisAE501_KCembedded</t>
   </si>
 </sst>
 </file>
@@ -449,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574DB2DE-57DC-43C4-A2A8-A79CF80A96B1}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -541,7 +550,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -555,7 +564,35 @@
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>44374.999988425923</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>44373.999988425923</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
